--- a/data/Книга1_тест.xlsx
+++ b/data/Книга1_тест.xlsx
@@ -1,34 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79278\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unik\TerVer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06988B2-6E1C-4415-AD8E-F93E3F159E57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -261,46 +253,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -584,16 +575,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
@@ -625,353 +616,353 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8">
-        <v>0</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0</v>
-      </c>
-      <c r="F2" s="12">
-        <v>0</v>
-      </c>
-      <c r="G2" s="14">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="15">
-        <v>0</v>
-      </c>
-      <c r="J2" s="16">
-        <v>1</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="14">
+        <v>0</v>
+      </c>
+      <c r="J2" s="15">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="17">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="20">
-        <v>0</v>
-      </c>
-      <c r="G3" s="21">
-        <v>0</v>
-      </c>
-      <c r="H3" s="22">
-        <v>0</v>
-      </c>
-      <c r="I3" s="23">
-        <v>0</v>
-      </c>
-      <c r="J3" s="14">
-        <v>1</v>
-      </c>
-      <c r="K3" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="21">
+        <v>0</v>
+      </c>
+      <c r="I3" s="22">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
+        <v>1</v>
+      </c>
+      <c r="K3" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
-        <v>0</v>
-      </c>
-      <c r="C4" s="17">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="27">
-        <v>1</v>
-      </c>
-      <c r="F4" s="15">
-        <v>1</v>
-      </c>
-      <c r="G4" s="18">
-        <v>1</v>
-      </c>
-      <c r="H4" s="19">
-        <v>0</v>
-      </c>
-      <c r="I4" s="28">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="26">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14">
+        <v>1</v>
+      </c>
+      <c r="G4" s="17">
+        <v>1</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0</v>
+      </c>
+      <c r="I4" s="27">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="27">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="22">
-        <v>0</v>
-      </c>
-      <c r="G5" s="21">
-        <v>0</v>
-      </c>
-      <c r="H5" s="29">
-        <v>0</v>
-      </c>
-      <c r="I5" s="16">
-        <v>0</v>
-      </c>
-      <c r="J5" s="23">
-        <v>1</v>
-      </c>
-      <c r="K5" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="26">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0</v>
+      </c>
+      <c r="H5" s="28">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="22">
+        <v>1</v>
+      </c>
+      <c r="K5" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="12">
-        <v>0</v>
-      </c>
-      <c r="C6" s="20">
-        <v>0</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0</v>
-      </c>
-      <c r="E6" s="22">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="32">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="28">
-        <v>0</v>
-      </c>
-      <c r="K6" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="21">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="31">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="27">
+        <v>0</v>
+      </c>
+      <c r="K6" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="14">
-        <v>0</v>
-      </c>
-      <c r="C7" s="21">
-        <v>0</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0</v>
-      </c>
-      <c r="E7" s="21">
-        <v>0</v>
-      </c>
-      <c r="F7" s="32">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="35">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13">
-        <v>0</v>
-      </c>
-      <c r="J7" s="20">
-        <v>0</v>
-      </c>
-      <c r="K7" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="13">
+        <v>0</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0</v>
+      </c>
+      <c r="F7" s="31">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="34">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0</v>
+      </c>
+      <c r="K7" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="22">
-        <v>1</v>
-      </c>
-      <c r="D8" s="19">
-        <v>1</v>
-      </c>
-      <c r="E8" s="29">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="35">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="37">
-        <v>1</v>
-      </c>
-      <c r="J8" s="38">
-        <v>1</v>
-      </c>
-      <c r="K8" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="21">
+        <v>1</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1</v>
+      </c>
+      <c r="E8" s="28">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="34">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="36">
+        <v>1</v>
+      </c>
+      <c r="J8" s="37">
+        <v>1</v>
+      </c>
+      <c r="K8" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="15">
-        <v>0</v>
-      </c>
-      <c r="C9" s="23">
-        <v>0</v>
-      </c>
-      <c r="D9" s="28">
-        <v>0</v>
-      </c>
-      <c r="E9" s="16">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13">
-        <v>0</v>
-      </c>
-      <c r="H9" s="37">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="29">
-        <v>0</v>
-      </c>
-      <c r="K9" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="14">
+        <v>0</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0</v>
+      </c>
+      <c r="D9" s="27">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="36">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="28">
+        <v>0</v>
+      </c>
+      <c r="K9" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="16">
-        <v>1</v>
-      </c>
-      <c r="C10" s="14">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12">
-        <v>1</v>
-      </c>
-      <c r="E10" s="23">
-        <v>1</v>
-      </c>
-      <c r="F10" s="28">
-        <v>0</v>
-      </c>
-      <c r="G10" s="20">
-        <v>0</v>
-      </c>
-      <c r="H10" s="38">
-        <v>1</v>
-      </c>
-      <c r="I10" s="29">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="15">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1</v>
+      </c>
+      <c r="F10" s="27">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0</v>
+      </c>
+      <c r="H10" s="37">
+        <v>1</v>
+      </c>
+      <c r="I10" s="28">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-      <c r="C11" s="26">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="31">
-        <v>0</v>
-      </c>
-      <c r="F11" s="34">
-        <v>0</v>
-      </c>
-      <c r="G11" s="36">
-        <v>0</v>
-      </c>
-      <c r="H11" s="40">
-        <v>0</v>
-      </c>
-      <c r="I11" s="42">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>1</v>
-      </c>
-      <c r="K11" s="6">
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="30">
+        <v>0</v>
+      </c>
+      <c r="F11" s="33">
+        <v>0</v>
+      </c>
+      <c r="G11" s="35">
+        <v>0</v>
+      </c>
+      <c r="H11" s="39">
+        <v>0</v>
+      </c>
+      <c r="I11" s="41">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
         <v>0</v>
       </c>
     </row>

--- a/data/Книга1_тест.xlsx
+++ b/data/Книга1_тест.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unik\TerVer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06988B2-6E1C-4415-AD8E-F93E3F159E57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2061177-9369-49BE-A957-DA0E01BDBAB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -579,7 +579,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
